--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.80895210869292</v>
+        <v>3.206835666666667</v>
       </c>
       <c r="H2">
-        <v>2.80895210869292</v>
+        <v>9.620507</v>
       </c>
       <c r="I2">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="J2">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.3669754407299</v>
+        <v>3.219409666666667</v>
       </c>
       <c r="N2">
-        <v>2.3669754407299</v>
+        <v>9.658229</v>
       </c>
       <c r="O2">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="P2">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="Q2">
-        <v>6.648720655462607</v>
+        <v>10.32411774467811</v>
       </c>
       <c r="R2">
-        <v>6.648720655462607</v>
+        <v>92.917059702103</v>
       </c>
       <c r="S2">
-        <v>0.03085398180347983</v>
+        <v>0.04099930091247985</v>
       </c>
       <c r="T2">
-        <v>0.03085398180347983</v>
+        <v>0.04099930091247984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.80895210869292</v>
+        <v>3.206835666666667</v>
       </c>
       <c r="H3">
-        <v>2.80895210869292</v>
+        <v>9.620507</v>
       </c>
       <c r="I3">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="J3">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.923187826777</v>
+        <v>4.994526666666666</v>
       </c>
       <c r="N3">
-        <v>4.923187826777</v>
+        <v>14.98358</v>
       </c>
       <c r="O3">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546936</v>
       </c>
       <c r="P3">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546935</v>
       </c>
       <c r="Q3">
-        <v>13.82899882751657</v>
+        <v>16.01662625278444</v>
       </c>
       <c r="R3">
-        <v>13.82899882751657</v>
+        <v>144.14963627506</v>
       </c>
       <c r="S3">
-        <v>0.06417470372047876</v>
+        <v>0.06360548141550741</v>
       </c>
       <c r="T3">
-        <v>0.06417470372047876</v>
+        <v>0.06360548141550741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.80895210869292</v>
+        <v>3.206835666666667</v>
       </c>
       <c r="H4">
-        <v>2.80895210869292</v>
+        <v>9.620507</v>
       </c>
       <c r="I4">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="J4">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.81076382570603</v>
+        <v>3.295414</v>
       </c>
       <c r="N4">
-        <v>2.81076382570603</v>
+        <v>9.886241999999999</v>
       </c>
       <c r="O4">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="P4">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="Q4">
-        <v>7.895300975254732</v>
+        <v>10.56785115163266</v>
       </c>
       <c r="R4">
-        <v>7.895300975254732</v>
+        <v>95.110660364694</v>
       </c>
       <c r="S4">
-        <v>0.03663884907292088</v>
+        <v>0.04196721890230564</v>
       </c>
       <c r="T4">
-        <v>0.03663884907292088</v>
+        <v>0.04196721890230564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.80895210869292</v>
+        <v>3.206835666666667</v>
       </c>
       <c r="H5">
-        <v>2.80895210869292</v>
+        <v>9.620507</v>
       </c>
       <c r="I5">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="J5">
-        <v>0.1776071067674951</v>
+        <v>0.1914891004057404</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.52427248379404</v>
+        <v>3.527049</v>
       </c>
       <c r="N5">
-        <v>3.52427248379404</v>
+        <v>10.581147</v>
       </c>
       <c r="O5">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="P5">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="Q5">
-        <v>9.899512624961703</v>
+        <v>11.310666531281</v>
       </c>
       <c r="R5">
-        <v>9.899512624961703</v>
+        <v>101.795998781529</v>
       </c>
       <c r="S5">
-        <v>0.04593957217061562</v>
+        <v>0.04491709917544752</v>
       </c>
       <c r="T5">
-        <v>0.04593957217061562</v>
+        <v>0.04491709917544752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.58817105283609</v>
+        <v>5.680435666666667</v>
       </c>
       <c r="H6">
-        <v>5.58817105283609</v>
+        <v>17.041307</v>
       </c>
       <c r="I6">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="J6">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3669754407299</v>
+        <v>3.219409666666667</v>
       </c>
       <c r="N6">
-        <v>2.3669754407299</v>
+        <v>9.658229</v>
       </c>
       <c r="O6">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="P6">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="Q6">
-        <v>13.22706364066078</v>
+        <v>18.28764949614478</v>
       </c>
       <c r="R6">
-        <v>13.22706364066078</v>
+        <v>164.588845465303</v>
       </c>
       <c r="S6">
-        <v>0.06138136974473651</v>
+        <v>0.07262420511049462</v>
       </c>
       <c r="T6">
-        <v>0.06138136974473651</v>
+        <v>0.07262420511049461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.58817105283609</v>
+        <v>5.680435666666667</v>
       </c>
       <c r="H7">
-        <v>5.58817105283609</v>
+        <v>17.041307</v>
       </c>
       <c r="I7">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="J7">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.923187826777</v>
+        <v>4.994526666666666</v>
       </c>
       <c r="N7">
-        <v>4.923187826777</v>
+        <v>14.98358</v>
       </c>
       <c r="O7">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546936</v>
       </c>
       <c r="P7">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546935</v>
       </c>
       <c r="Q7">
-        <v>27.51161570127025</v>
+        <v>28.37108741545111</v>
       </c>
       <c r="R7">
-        <v>27.51161570127025</v>
+        <v>255.33978673906</v>
       </c>
       <c r="S7">
-        <v>0.1276701089154514</v>
+        <v>0.1126677144649919</v>
       </c>
       <c r="T7">
-        <v>0.1276701089154514</v>
+        <v>0.1126677144649919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.58817105283609</v>
+        <v>5.680435666666667</v>
       </c>
       <c r="H8">
-        <v>5.58817105283609</v>
+        <v>17.041307</v>
       </c>
       <c r="I8">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="J8">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.81076382570603</v>
+        <v>3.295414</v>
       </c>
       <c r="N8">
-        <v>2.81076382570603</v>
+        <v>9.886241999999999</v>
       </c>
       <c r="O8">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="P8">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="Q8">
-        <v>15.70702904716926</v>
+        <v>18.71938722203267</v>
       </c>
       <c r="R8">
-        <v>15.70702904716926</v>
+        <v>168.474484998294</v>
       </c>
       <c r="S8">
-        <v>0.07288987062645214</v>
+        <v>0.07433872884769935</v>
       </c>
       <c r="T8">
-        <v>0.07288987062645214</v>
+        <v>0.07433872884769933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.58817105283609</v>
+        <v>5.680435666666667</v>
       </c>
       <c r="H9">
-        <v>5.58817105283609</v>
+        <v>17.041307</v>
       </c>
       <c r="I9">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="J9">
-        <v>0.3533342166085988</v>
+        <v>0.3391946544156194</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52427248379404</v>
+        <v>3.527049</v>
       </c>
       <c r="N9">
-        <v>3.52427248379404</v>
+        <v>10.581147</v>
       </c>
       <c r="O9">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="P9">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="Q9">
-        <v>19.6942374762446</v>
+        <v>20.035174937681</v>
       </c>
       <c r="R9">
-        <v>19.6942374762446</v>
+        <v>180.316574439129</v>
       </c>
       <c r="S9">
-        <v>0.09139286732195885</v>
+        <v>0.07956400599243346</v>
       </c>
       <c r="T9">
-        <v>0.09139286732195885</v>
+        <v>0.07956400599243346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.5271749617762</v>
+        <v>3.798321333333333</v>
       </c>
       <c r="H10">
-        <v>3.5271749617762</v>
+        <v>11.394964</v>
       </c>
       <c r="I10">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="J10">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.3669754407299</v>
+        <v>3.219409666666667</v>
       </c>
       <c r="N10">
-        <v>2.3669754407299</v>
+        <v>9.658229</v>
       </c>
       <c r="O10">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="P10">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="Q10">
-        <v>8.348736509681689</v>
+        <v>12.22835241763956</v>
       </c>
       <c r="R10">
-        <v>8.348736509681689</v>
+        <v>110.055171758756</v>
       </c>
       <c r="S10">
-        <v>0.03874305715342822</v>
+        <v>0.04856142799156792</v>
       </c>
       <c r="T10">
-        <v>0.03874305715342822</v>
+        <v>0.04856142799156791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.5271749617762</v>
+        <v>3.798321333333333</v>
       </c>
       <c r="H11">
-        <v>3.5271749617762</v>
+        <v>11.394964</v>
       </c>
       <c r="I11">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="J11">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.923187826777</v>
+        <v>4.994526666666666</v>
       </c>
       <c r="N11">
-        <v>4.923187826777</v>
+        <v>14.98358</v>
       </c>
       <c r="O11">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546936</v>
       </c>
       <c r="P11">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546935</v>
       </c>
       <c r="Q11">
-        <v>17.36494483472922</v>
+        <v>18.97081718790222</v>
       </c>
       <c r="R11">
-        <v>17.36494483472922</v>
+        <v>170.73735469112</v>
       </c>
       <c r="S11">
-        <v>0.08058357685834942</v>
+        <v>0.07533721153494051</v>
       </c>
       <c r="T11">
-        <v>0.08058357685834942</v>
+        <v>0.07533721153494051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.5271749617762</v>
+        <v>3.798321333333333</v>
       </c>
       <c r="H12">
-        <v>3.5271749617762</v>
+        <v>11.394964</v>
       </c>
       <c r="I12">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="J12">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.81076382570603</v>
+        <v>3.295414</v>
       </c>
       <c r="N12">
-        <v>2.81076382570603</v>
+        <v>9.886241999999999</v>
       </c>
       <c r="O12">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="P12">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="Q12">
-        <v>9.914055789496592</v>
+        <v>12.51704129836533</v>
       </c>
       <c r="R12">
-        <v>9.914055789496592</v>
+        <v>112.653371685288</v>
       </c>
       <c r="S12">
-        <v>0.0460070610240623</v>
+        <v>0.04970787387524299</v>
       </c>
       <c r="T12">
-        <v>0.0460070610240623</v>
+        <v>0.04970787387524298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.5271749617762</v>
+        <v>3.798321333333333</v>
       </c>
       <c r="H13">
-        <v>3.5271749617762</v>
+        <v>11.394964</v>
       </c>
       <c r="I13">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="J13">
-        <v>0.2230195872991673</v>
+        <v>0.2268083590101642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.52427248379404</v>
+        <v>3.527049</v>
       </c>
       <c r="N13">
-        <v>3.52427248379404</v>
+        <v>10.581147</v>
       </c>
       <c r="O13">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="P13">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="Q13">
-        <v>12.43072566331516</v>
+        <v>13.396865460412</v>
       </c>
       <c r="R13">
-        <v>12.43072566331516</v>
+        <v>120.571789143708</v>
       </c>
       <c r="S13">
-        <v>0.0576858922633274</v>
+        <v>0.05320184560841276</v>
       </c>
       <c r="T13">
-        <v>0.0576858922633274</v>
+        <v>0.05320184560841276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.89124079186957</v>
+        <v>4.061238666666667</v>
       </c>
       <c r="H14">
-        <v>3.89124079186957</v>
+        <v>12.183716</v>
       </c>
       <c r="I14">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="J14">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.3669754407299</v>
+        <v>3.219409666666667</v>
       </c>
       <c r="N14">
-        <v>2.3669754407299</v>
+        <v>9.658229</v>
       </c>
       <c r="O14">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="P14">
-        <v>0.1737204234956132</v>
+        <v>0.2141077524809907</v>
       </c>
       <c r="Q14">
-        <v>9.210471388321642</v>
+        <v>13.07479102210711</v>
       </c>
       <c r="R14">
-        <v>9.210471388321642</v>
+        <v>117.673119198964</v>
       </c>
       <c r="S14">
-        <v>0.04274201479396862</v>
+        <v>0.05192281846644833</v>
       </c>
       <c r="T14">
-        <v>0.04274201479396862</v>
+        <v>0.05192281846644832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.89124079186957</v>
+        <v>4.061238666666667</v>
       </c>
       <c r="H15">
-        <v>3.89124079186957</v>
+        <v>12.183716</v>
       </c>
       <c r="I15">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="J15">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.923187826777</v>
+        <v>4.994526666666666</v>
       </c>
       <c r="N15">
-        <v>4.923187826777</v>
+        <v>14.98358</v>
       </c>
       <c r="O15">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546936</v>
       </c>
       <c r="P15">
-        <v>0.3613295936659205</v>
+        <v>0.3321624117546935</v>
       </c>
       <c r="Q15">
-        <v>19.15730929759036</v>
+        <v>20.28396482036445</v>
       </c>
       <c r="R15">
-        <v>19.15730929759036</v>
+        <v>182.55568338328</v>
       </c>
       <c r="S15">
-        <v>0.08890120417164099</v>
+        <v>0.08055200433925368</v>
       </c>
       <c r="T15">
-        <v>0.08890120417164099</v>
+        <v>0.08055200433925366</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.89124079186957</v>
+        <v>4.061238666666667</v>
       </c>
       <c r="H16">
-        <v>3.89124079186957</v>
+        <v>12.183716</v>
       </c>
       <c r="I16">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="J16">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.81076382570603</v>
+        <v>3.295414</v>
       </c>
       <c r="N16">
-        <v>2.81076382570603</v>
+        <v>9.886241999999999</v>
       </c>
       <c r="O16">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="P16">
-        <v>0.2062915709836132</v>
+        <v>0.2191624422141134</v>
       </c>
       <c r="Q16">
-        <v>10.93735885489867</v>
+        <v>13.38346275947467</v>
       </c>
       <c r="R16">
-        <v>10.93735885489867</v>
+        <v>120.451164835272</v>
       </c>
       <c r="S16">
-        <v>0.0507557902601779</v>
+        <v>0.0531486205888654</v>
       </c>
       <c r="T16">
-        <v>0.0507557902601779</v>
+        <v>0.05314862058886539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.89124079186957</v>
+        <v>4.061238666666667</v>
       </c>
       <c r="H17">
-        <v>3.89124079186957</v>
+        <v>12.183716</v>
       </c>
       <c r="I17">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="J17">
-        <v>0.2460390893247388</v>
+        <v>0.242507886168476</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.52427248379404</v>
+        <v>3.527049</v>
       </c>
       <c r="N17">
-        <v>3.52427248379404</v>
+        <v>10.581147</v>
       </c>
       <c r="O17">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="P17">
-        <v>0.2586584118548532</v>
+        <v>0.2345673935502023</v>
       </c>
       <c r="Q17">
-        <v>13.71379285060286</v>
+        <v>14.324187778028</v>
       </c>
       <c r="R17">
-        <v>13.71379285060286</v>
+        <v>128.917690002252</v>
       </c>
       <c r="S17">
-        <v>0.06364008009895129</v>
+        <v>0.05688444277390857</v>
       </c>
       <c r="T17">
-        <v>0.06364008009895129</v>
+        <v>0.05688444277390856</v>
       </c>
     </row>
   </sheetData>
